--- a/Dog Breeds & Weights1.xlsx
+++ b/Dog Breeds & Weights1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e81470ff4c6185f6/Desktop/159333/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{6E2082E2-072B-4A74-AB80-DE69CC11B68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16AE7D5D-1F42-4675-97BA-B2B67BC4C7C5}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{6E2082E2-072B-4A74-AB80-DE69CC11B68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF0E0B66-BB35-4D30-91AE-55E49E56E0AC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C26AE357-E83D-478D-9578-ED811C49AA07}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="363">
   <si>
     <t>Breed Name</t>
   </si>
@@ -654,6 +654,366 @@
   </si>
   <si>
     <t>Beagles</t>
+  </si>
+  <si>
+    <t>3 – 5</t>
+  </si>
+  <si>
+    <t>23 – 27</t>
+  </si>
+  <si>
+    <t>23 – 32</t>
+  </si>
+  <si>
+    <t>45 – 59</t>
+  </si>
+  <si>
+    <t>39 – 56</t>
+  </si>
+  <si>
+    <t>20 – 29</t>
+  </si>
+  <si>
+    <t>29 – 32</t>
+  </si>
+  <si>
+    <t>5 – 7</t>
+  </si>
+  <si>
+    <t>25 – 32</t>
+  </si>
+  <si>
+    <t>50 – 68</t>
+  </si>
+  <si>
+    <t>23 – 29</t>
+  </si>
+  <si>
+    <t>5 – 8</t>
+  </si>
+  <si>
+    <t>18 – 29</t>
+  </si>
+  <si>
+    <t>9 – 14</t>
+  </si>
+  <si>
+    <t>20 – 25</t>
+  </si>
+  <si>
+    <t>32 – 50</t>
+  </si>
+  <si>
+    <t>8 – 10</t>
+  </si>
+  <si>
+    <t>27 – 36</t>
+  </si>
+  <si>
+    <t>25 – 34</t>
+  </si>
+  <si>
+    <t>32 – 38</t>
+  </si>
+  <si>
+    <t>36 – 52</t>
+  </si>
+  <si>
+    <t>29 – 50</t>
+  </si>
+  <si>
+    <t>36 – 59</t>
+  </si>
+  <si>
+    <t>41 – 50</t>
+  </si>
+  <si>
+    <t>25 – 36</t>
+  </si>
+  <si>
+    <t>68 – 91</t>
+  </si>
+  <si>
+    <t>14 – 25</t>
+  </si>
+  <si>
+    <t>6 – 7</t>
+  </si>
+  <si>
+    <t>34 – 48</t>
+  </si>
+  <si>
+    <t>5 – 11</t>
+  </si>
+  <si>
+    <t>29 – 36</t>
+  </si>
+  <si>
+    <t>25 – 45</t>
+  </si>
+  <si>
+    <t>14 – 18</t>
+  </si>
+  <si>
+    <t>4 – 5</t>
+  </si>
+  <si>
+    <t>50 – 59</t>
+  </si>
+  <si>
+    <t>24 – 25</t>
+  </si>
+  <si>
+    <t>12 – 15</t>
+  </si>
+  <si>
+    <t>23 – 0</t>
+  </si>
+  <si>
+    <t>14 – 17</t>
+  </si>
+  <si>
+    <t>5 – 9</t>
+  </si>
+  <si>
+    <t>6 – 11</t>
+  </si>
+  <si>
+    <t>1.5 – 3</t>
+  </si>
+  <si>
+    <t>20 – 27</t>
+  </si>
+  <si>
+    <t>25 – 41</t>
+  </si>
+  <si>
+    <t>20 – 32</t>
+  </si>
+  <si>
+    <t>10 – 12</t>
+  </si>
+  <si>
+    <t>13 – 16</t>
+  </si>
+  <si>
+    <t>27 – 34</t>
+  </si>
+  <si>
+    <t>4 – 7</t>
+  </si>
+  <si>
+    <t>8 – 11</t>
+  </si>
+  <si>
+    <t>34 – 41</t>
+  </si>
+  <si>
+    <t>34 – 45</t>
+  </si>
+  <si>
+    <t>4 – 6</t>
+  </si>
+  <si>
+    <t>25 – 29</t>
+  </si>
+  <si>
+    <t>15 – 24</t>
+  </si>
+  <si>
+    <t>11 – 15</t>
+  </si>
+  <si>
+    <t>11 – 20</t>
+  </si>
+  <si>
+    <t>29 – 41</t>
+  </si>
+  <si>
+    <t>27 – 39</t>
+  </si>
+  <si>
+    <t>15 – 18</t>
+  </si>
+  <si>
+    <t>32 – 36</t>
+  </si>
+  <si>
+    <t>54 – 91</t>
+  </si>
+  <si>
+    <t>64 – 79</t>
+  </si>
+  <si>
+    <t>52 – 64</t>
+  </si>
+  <si>
+    <t>3 – 6</t>
+  </si>
+  <si>
+    <t>16 – 20</t>
+  </si>
+  <si>
+    <t>20.5 – 25</t>
+  </si>
+  <si>
+    <t>45 – 52</t>
+  </si>
+  <si>
+    <t>50 – 77</t>
+  </si>
+  <si>
+    <t>2 – 4</t>
+  </si>
+  <si>
+    <t>73 – 104</t>
+  </si>
+  <si>
+    <t>9 – 18</t>
+  </si>
+  <si>
+    <t>8 – 13</t>
+  </si>
+  <si>
+    <t>4 – 4</t>
+  </si>
+  <si>
+    <t>59 – 68</t>
+  </si>
+  <si>
+    <t>5 – 6</t>
+  </si>
+  <si>
+    <t>27 – 45</t>
+  </si>
+  <si>
+    <t>2 – 5</t>
+  </si>
+  <si>
+    <t>6 – 8</t>
+  </si>
+  <si>
+    <t>Up to 6</t>
+  </si>
+  <si>
+    <t>Up to 14</t>
+  </si>
+  <si>
+    <t>11 – 18</t>
+  </si>
+  <si>
+    <t>14 – 23</t>
+  </si>
+  <si>
+    <t>1 – 3</t>
+  </si>
+  <si>
+    <t>7 – 8</t>
+  </si>
+  <si>
+    <t>3.5 – 5.5</t>
+  </si>
+  <si>
+    <t>19 – 27</t>
+  </si>
+  <si>
+    <t>6 – 9</t>
+  </si>
+  <si>
+    <t>11 – 16</t>
+  </si>
+  <si>
+    <t>12 – 13</t>
+  </si>
+  <si>
+    <t>7 – 14</t>
+  </si>
+  <si>
+    <t>27 – 43</t>
+  </si>
+  <si>
+    <t>27 – 32</t>
+  </si>
+  <si>
+    <t>29 – 34</t>
+  </si>
+  <si>
+    <t>16 – 23</t>
+  </si>
+  <si>
+    <t>43 – 61</t>
+  </si>
+  <si>
+    <t>39 – 50</t>
+  </si>
+  <si>
+    <t>9 – 10</t>
+  </si>
+  <si>
+    <t>10 – 11</t>
+  </si>
+  <si>
+    <t>32 – 0</t>
+  </si>
+  <si>
+    <t>8 – 12</t>
+  </si>
+  <si>
+    <t>7 – 11</t>
+  </si>
+  <si>
+    <t>16 – 18</t>
+  </si>
+  <si>
+    <t>14 – 20</t>
+  </si>
+  <si>
+    <t>32 – 39</t>
+  </si>
+  <si>
+    <t>13 – 15</t>
+  </si>
+  <si>
+    <t>25 – 31</t>
+  </si>
+  <si>
+    <t>18 – 25</t>
+  </si>
+  <si>
+    <t>18 – 22</t>
+  </si>
+  <si>
+    <t>64 – 82</t>
+  </si>
+  <si>
+    <t>13 – 17</t>
+  </si>
+  <si>
+    <t>9 – 16</t>
+  </si>
+  <si>
+    <t>41 – 68</t>
+  </si>
+  <si>
+    <t>8 – 14</t>
+  </si>
+  <si>
+    <t>2 – 3</t>
+  </si>
+  <si>
+    <t>25 – 27</t>
+  </si>
+  <si>
+    <t>32 – 41</t>
+  </si>
+  <si>
+    <t>7 – 9</t>
+  </si>
+  <si>
+    <t>15 – 28</t>
+  </si>
+  <si>
+    <t>7  – 14</t>
   </si>
   <si>
     <t>Male(Kg)</t>
@@ -664,378 +1024,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3 – 5</t>
-  </si>
-  <si>
-    <t>23 – 27</t>
-  </si>
-  <si>
-    <t>23 – 32</t>
-  </si>
-  <si>
-    <t>45 – 59</t>
-  </si>
-  <si>
-    <t>39 – 56</t>
-  </si>
-  <si>
-    <t>20 – 29</t>
-  </si>
-  <si>
-    <t>29 – 32</t>
-  </si>
-  <si>
-    <t>5 – 7</t>
-  </si>
-  <si>
-    <t>25 – 32</t>
-  </si>
-  <si>
-    <t>50 – 68</t>
-  </si>
-  <si>
-    <t>15-28</t>
-  </si>
-  <si>
-    <t>23 – 29</t>
-  </si>
-  <si>
-    <t>5 – 8</t>
-  </si>
-  <si>
-    <t>18 – 29</t>
-  </si>
-  <si>
-    <t>9 – 14</t>
-  </si>
-  <si>
-    <t>20 – 25</t>
-  </si>
-  <si>
-    <t>32 – 50</t>
-  </si>
-  <si>
-    <t>8 – 10</t>
-  </si>
-  <si>
-    <t>27 – 36</t>
-  </si>
-  <si>
-    <t>25 – 34</t>
-  </si>
-  <si>
-    <t>32 – 38</t>
-  </si>
-  <si>
-    <t>36 – 52</t>
-  </si>
-  <si>
-    <t>29 – 50</t>
-  </si>
-  <si>
-    <t>36 – 59</t>
-  </si>
-  <si>
-    <t>41 – 50</t>
-  </si>
-  <si>
-    <t>25 – 36</t>
-  </si>
-  <si>
-    <t>68 – 91</t>
-  </si>
-  <si>
-    <t>14 – 25</t>
-  </si>
-  <si>
-    <t>6 – 7</t>
-  </si>
-  <si>
-    <t>34 – 48</t>
-  </si>
-  <si>
-    <t>5 – 11</t>
-  </si>
-  <si>
-    <t>29 – 36</t>
-  </si>
-  <si>
-    <t>25 – 45</t>
-  </si>
-  <si>
-    <t>14 – 18</t>
-  </si>
-  <si>
-    <t>4 – 5</t>
-  </si>
-  <si>
-    <t>50 – 59</t>
-  </si>
-  <si>
-    <t>24 – 25</t>
-  </si>
-  <si>
-    <t>12 – 15</t>
-  </si>
-  <si>
-    <t>23 – 0</t>
-  </si>
-  <si>
-    <t>14 – 17</t>
-  </si>
-  <si>
-    <t>5 – 9</t>
-  </si>
-  <si>
-    <t>6 – 11</t>
-  </si>
-  <si>
-    <t>1.5 – 3</t>
-  </si>
-  <si>
-    <t>20 – 27</t>
-  </si>
-  <si>
-    <t>25 – 41</t>
-  </si>
-  <si>
-    <t>20 – 32</t>
-  </si>
-  <si>
-    <t>10 – 12</t>
-  </si>
-  <si>
-    <t>13 – 16</t>
-  </si>
-  <si>
-    <t>27 – 34</t>
-  </si>
-  <si>
-    <t>4 – 7</t>
-  </si>
-  <si>
-    <t>8 – 11</t>
-  </si>
-  <si>
-    <t>34 – 41</t>
-  </si>
-  <si>
-    <t>34 – 45</t>
-  </si>
-  <si>
-    <t>50 +</t>
-  </si>
-  <si>
-    <t>4 – 6</t>
-  </si>
-  <si>
-    <t>25 – 29</t>
-  </si>
-  <si>
-    <t>15 – 24</t>
-  </si>
-  <si>
-    <t>11 – 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under 13 </t>
-  </si>
-  <si>
-    <t>11 – 20</t>
-  </si>
-  <si>
-    <t>29 – 41</t>
-  </si>
-  <si>
-    <t>27 – 39</t>
-  </si>
-  <si>
-    <t>15 – 18</t>
-  </si>
-  <si>
-    <t>32 – 36</t>
-  </si>
-  <si>
-    <t>54 – 91</t>
-  </si>
-  <si>
-    <t>64 – 79</t>
-  </si>
-  <si>
-    <t>45 +</t>
-  </si>
-  <si>
-    <t>52 – 64</t>
-  </si>
-  <si>
-    <t>3 – 6</t>
-  </si>
-  <si>
-    <t>16 – 20</t>
-  </si>
-  <si>
-    <t>20.5 – 25</t>
-  </si>
-  <si>
-    <t>45 – 52</t>
-  </si>
-  <si>
-    <t>50 – 77</t>
-  </si>
-  <si>
-    <t>Under 3</t>
-  </si>
-  <si>
-    <t>2 – 4</t>
-  </si>
-  <si>
-    <t>73 – 104</t>
-  </si>
-  <si>
-    <t>9 – 18</t>
-  </si>
-  <si>
-    <t>8 – 13</t>
-  </si>
-  <si>
-    <t>4 – 4</t>
-  </si>
-  <si>
-    <t>59 – 68</t>
-  </si>
-  <si>
-    <t>5 – 6</t>
-  </si>
-  <si>
-    <t>27 – 45</t>
-  </si>
-  <si>
-    <t>2 – 5</t>
-  </si>
-  <si>
-    <t>6 – 8</t>
-  </si>
-  <si>
-    <t>Up to 6</t>
-  </si>
-  <si>
-    <t>Up to 14</t>
-  </si>
-  <si>
-    <t>11 – 18</t>
-  </si>
-  <si>
-    <t>14 – 23</t>
-  </si>
-  <si>
-    <t>1 – 3</t>
-  </si>
-  <si>
-    <t>7 – 8</t>
-  </si>
-  <si>
-    <t>3.5 – 5.5</t>
-  </si>
-  <si>
-    <t>19 – 27</t>
-  </si>
-  <si>
-    <t>6 – 9</t>
-  </si>
-  <si>
-    <t>11 – 16</t>
-  </si>
-  <si>
-    <t>12 – 13</t>
-  </si>
-  <si>
-    <t>7 – 14</t>
-  </si>
-  <si>
-    <t>27 – 43</t>
-  </si>
-  <si>
-    <t>27 – 32</t>
-  </si>
-  <si>
-    <t>29 – 34</t>
-  </si>
-  <si>
-    <t>16 – 23</t>
-  </si>
-  <si>
-    <t>43 – 61</t>
-  </si>
-  <si>
-    <t>39 – 50</t>
-  </si>
-  <si>
-    <t>9 – 10</t>
-  </si>
-  <si>
-    <t>10 – 11</t>
-  </si>
-  <si>
-    <t>32 – 0</t>
-  </si>
-  <si>
-    <t>8 – 12</t>
-  </si>
-  <si>
-    <t>7 – 11</t>
-  </si>
-  <si>
-    <t>Around 5</t>
-  </si>
-  <si>
-    <t>16 – 18</t>
-  </si>
-  <si>
-    <t>14 – 20</t>
-  </si>
-  <si>
-    <t>32 – 39</t>
-  </si>
-  <si>
-    <t>13 – 15</t>
-  </si>
-  <si>
-    <t>25 – 31</t>
-  </si>
-  <si>
-    <t>18 – 25</t>
-  </si>
-  <si>
-    <t>18 – 22</t>
-  </si>
-  <si>
-    <t>64 – 82</t>
-  </si>
-  <si>
-    <t>13 – 17</t>
-  </si>
-  <si>
-    <t>9 – 16</t>
-  </si>
-  <si>
-    <t>41 – 68</t>
-  </si>
-  <si>
-    <t>8 – 14</t>
-  </si>
-  <si>
-    <t>2 – 3</t>
-  </si>
-  <si>
-    <t>25 – 27</t>
-  </si>
-  <si>
-    <t>32 – 41</t>
-  </si>
-  <si>
-    <t>7 – 9</t>
-  </si>
-  <si>
     <t>32 – 45</t>
   </si>
   <si>
@@ -1048,7 +1036,7 @@
     <t>36 – 54</t>
   </si>
   <si>
-    <t>15-22</t>
+    <t>15 – 22</t>
   </si>
   <si>
     <t>18 – 27</t>
@@ -1081,21 +1069,12 @@
     <t>9 – 13</t>
   </si>
   <si>
-    <t>Under 13</t>
-  </si>
-  <si>
     <t>50 – 64</t>
   </si>
   <si>
-    <t>39 +</t>
-  </si>
-  <si>
     <t>14 – 21</t>
   </si>
   <si>
-    <t>36 +</t>
-  </si>
-  <si>
     <t>11 – 14</t>
   </si>
   <si>
@@ -1148,10 +1127,6 @@
   </si>
   <si>
     <t>7 – 13</t>
-  </si>
-  <si>
-    <t>7 – 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1194,30 +1169,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1228,10 +1189,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1533,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF12026-3E48-493C-BEE4-49A75C5CFBC8}">
   <dimension ref="A1:C206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="G206" sqref="G206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1549,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>206</v>
+        <v>326</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1560,10 +1517,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1571,10 +1528,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1582,10 +1539,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1593,10 +1550,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1604,10 +1561,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1615,10 +1572,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1626,10 +1583,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1637,10 +1594,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1648,10 +1605,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1659,10 +1616,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1670,10 +1627,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1681,10 +1638,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>218</v>
+        <v>324</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1692,10 +1649,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1703,10 +1660,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1725,10 +1682,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1736,10 +1693,10 @@
         <v>205</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1747,10 +1704,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1758,10 +1715,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1769,10 +1726,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1780,10 +1737,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1791,10 +1748,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1802,10 +1759,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1813,10 +1770,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1824,10 +1781,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1835,10 +1792,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1846,10 +1803,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1857,10 +1814,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1868,10 +1825,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1879,10 +1836,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1890,10 +1847,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1901,10 +1858,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1912,10 +1869,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1923,10 +1880,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1934,10 +1891,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1945,10 +1902,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1956,10 +1913,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1967,10 +1924,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1978,10 +1935,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1989,10 +1946,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2000,10 +1957,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2011,10 +1968,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2022,10 +1979,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2033,10 +1990,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2044,10 +2001,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2055,10 +2012,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2066,10 +2023,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2088,10 +2045,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2099,10 +2056,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2110,10 +2067,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2121,10 +2078,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2132,10 +2089,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2143,10 +2100,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2154,10 +2111,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2165,10 +2122,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2176,10 +2133,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2187,10 +2144,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2198,10 +2155,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2209,10 +2166,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2220,10 +2177,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2231,10 +2188,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2242,10 +2199,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2253,21 +2210,21 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="2">
-        <v>45121</v>
+      <c r="B66" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2275,10 +2232,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2286,21 +2243,21 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>274</v>
+      <c r="B69" s="1">
+        <v>50</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2308,10 +2265,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2319,10 +2276,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2330,10 +2287,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2341,10 +2298,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2352,10 +2309,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2363,10 +2320,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2395,11 +2352,11 @@
       <c r="A78" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>347</v>
+      <c r="B78" s="1">
+        <v>13</v>
+      </c>
+      <c r="C78" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2407,10 +2364,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2418,10 +2375,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2429,10 +2386,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2440,10 +2397,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2451,10 +2408,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2462,10 +2419,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2473,10 +2430,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2484,21 +2441,21 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>349</v>
+      <c r="B87" s="1">
+        <v>45</v>
+      </c>
+      <c r="C87" s="1">
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2506,10 +2463,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2517,10 +2474,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2528,10 +2485,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2539,10 +2496,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2594,21 +2551,21 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="2">
-        <v>45085</v>
-      </c>
-      <c r="C97" s="2">
-        <v>45053</v>
+      <c r="B97" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2616,10 +2573,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2627,10 +2584,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2638,10 +2595,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2649,21 +2606,21 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>351</v>
+      <c r="B102" s="1">
+        <v>45</v>
+      </c>
+      <c r="C102" s="1">
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2671,10 +2628,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2682,10 +2639,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2693,10 +2650,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2715,10 +2672,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2729,7 +2686,7 @@
         <v>7</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2737,10 +2694,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2758,11 +2715,11 @@
       <c r="A111" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>281</v>
+      <c r="B111" s="1">
+        <v>3</v>
+      </c>
+      <c r="C111" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2770,10 +2727,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2781,10 +2738,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2792,10 +2749,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2803,10 +2760,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2814,10 +2771,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2825,10 +2782,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2847,10 +2804,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2858,10 +2815,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2869,10 +2826,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2891,10 +2848,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2913,10 +2870,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2924,10 +2881,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2935,10 +2892,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2946,10 +2903,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2957,10 +2914,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2968,10 +2925,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2979,10 +2936,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2990,10 +2947,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -3001,10 +2958,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -3012,10 +2969,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -3023,10 +2980,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -3034,10 +2991,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -3045,10 +3002,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -3056,10 +3013,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -3067,10 +3024,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -3078,10 +3035,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -3089,10 +3046,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -3100,10 +3057,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -3111,10 +3068,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -3122,10 +3079,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -3133,10 +3090,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -3144,10 +3101,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -3155,10 +3112,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -3166,10 +3123,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -3177,10 +3134,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -3188,10 +3145,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -3199,10 +3156,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -3210,10 +3167,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -3221,10 +3178,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -3232,10 +3189,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -3254,10 +3211,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -3265,10 +3222,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -3276,10 +3233,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -3287,10 +3244,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -3298,10 +3255,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -3309,10 +3266,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -3320,10 +3277,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3331,10 +3288,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -3342,10 +3299,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -3353,10 +3310,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -3364,10 +3321,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -3375,10 +3332,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -3386,10 +3343,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3397,10 +3354,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3408,10 +3365,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3419,10 +3376,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3441,10 +3398,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3452,21 +3409,21 @@
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>315</v>
+      <c r="B175" s="1">
+        <v>5</v>
+      </c>
+      <c r="C175" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3474,10 +3431,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3485,10 +3442,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3496,10 +3453,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3507,10 +3464,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -3518,10 +3475,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -3529,10 +3486,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -3540,10 +3497,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -3551,10 +3508,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -3562,10 +3519,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -3573,10 +3530,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -3584,10 +3541,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -3595,10 +3552,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -3606,10 +3563,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -3628,10 +3585,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -3639,10 +3596,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -3650,10 +3607,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -3661,10 +3618,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -3672,10 +3629,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -3683,10 +3640,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -3694,10 +3651,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -3705,10 +3662,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -3716,10 +3673,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -3727,10 +3684,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -3738,10 +3695,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3760,10 +3717,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3771,10 +3728,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3782,10 +3739,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3793,10 +3750,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3812,9 +3769,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
